--- a/data/new_data_raw_83_.xlsx
+++ b/data/new_data_raw_83_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benfica II</t>
+          <t>Lokomotiv Moscow</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Salzburg</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 0 - 0)</t>
+          <t>(İY 0 - 2)</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | 2. Lig | 14. Hafta | Stat: Caixa Futebol Campus (631)</t>
+          <t>01-12-20 | Şampiyonlar Ligi | 5. Hafta | Stat: RZD Arena (6759) | TV: beIN SPORTS HD 2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 25383 MBS 3</t>
+          <t>MAÇ SONUCU 21811 MBS 1</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>4.40</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 25384 MBS 3</t>
+          <t>ÇIFTE ŞANS 21812 MBS 1</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 25391 MBS 3</t>
+          <t>1,5 ALT/ÜST 21861 MBS 1</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>4.60</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.06</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 25392 MBS 3</t>
+          <t>2,5 ALT/ÜST 21862 MBS 1</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.32</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3,5 ALT/ÜST 25393 MBS 3</t>
+          <t>3,5 ALT/ÜST 21863 MBS 1</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 25405 MBS 3</t>
+          <t>4,5 ALT/ÜST 21864 MBS 1</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.80</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 25407 MBS 3</t>
+          <t>5,5 ALT/ÜST 21865 MBS 1</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.08</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 25398 MBS 3</t>
+          <t>1. YARI 0,5 ALT/ÜST 21874 MBS 1</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 25397 MBS 3</t>
+          <t>1. YARI 2,5 ALT/ÜST 21898 MBS 1</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1-X</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.15</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.60</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>X-2</t>
+          <t>1. YARI 1,5 ALT/ÜST 21875 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 25396 MBS 3</t>
+          <t>1.58</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.90</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1. YARI ÇIFTE ŞANS 21869 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1-X</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.45</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 25410 MBS 3</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>X-2</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1. YARI SONUCU 21868 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4.40</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 25421 MBS 3</t>
+          <t>2.35</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tek</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.80</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Çift</t>
+          <t>2. YARI SONUCU 21900 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 25395 MBS 3</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.75</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.62</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>TEK/ÇIFT 21918 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>Tek</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>19.85</t>
+          <t>Çift</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 25394 MBS 3</t>
+          <t>1.70</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>TOPLAM GOL ARALIĞI 21867 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>4.60</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2-3</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HND. MS (0:1) 25386 MBS 3</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4-5</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>6+</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>4.25</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>KARŞILIKLI GOL 21866 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MS VE 4,5 ALT/ÜST 25390 MBS 3</t>
+          <t>1.42</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>İLK YARI/MAÇ SONUCU 21899 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1/1</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>7.00</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>X/1</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>2/1</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>40.00</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>34.00</t>
+          <t>1/X</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>X/X</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MS VE 1,5 ALT/ÜST 07830 MBS 3</t>
+          <t>6.25</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>2/X</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1/2</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>17.00</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>X/2</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>2/2</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>HND. MS (0:1) 21813 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>8.00</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MS VE 2,5 ALT/ÜST 25388 MBS 3</t>
+          <t>4.75</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>HND. MS (1:0) 21814 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>HND. MS (2:0) 21815 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>+2h</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>1.48</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MS VE 3,5 ALT/ÜST 25389 MBS 3</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>3.90</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>MAÇ SKORU 21901 MBS 1</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>0-0</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>9.00</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>0-2</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>8.00</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>0-3</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>10.00</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 25431 MBS 3</t>
+          <t>0-4</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>17.00</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0-5</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>35.00</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1-0</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>12+</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1-1</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>EV SAHIBI 1,5 A/Ü 25413 MBS 3</t>
+          <t>8.00</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>7.00</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>1-3</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>9.00</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>EN ÇOK GOL OLACAK YARI 25417 MBS 3</t>
+          <t>1-4</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>1. Yarı</t>
+          <t>15.00</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>1-5</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Eşit</t>
+          <t>35.00</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2-0</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2. Yarı</t>
+          <t>35.00</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2-1</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DEPLASMAN 1,5 A/Ü 25416 MBS 3</t>
+          <t>15.00</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>2-2</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>12.00</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>2-3</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>15.00</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1. YARI KARŞILIKLI GOL 25427 MBS 3</t>
+          <t>2-4</t>
         </is>
       </c>
     </row>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>28.00</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>0-6</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>100.00</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3-0</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 25428 MBS 3</t>
+          <t>80.00</t>
         </is>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Alt</t>
+          <t>3-1</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>40.00</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Üst</t>
+          <t>3-2</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,1497 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>30.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>3-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>4-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>4-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>4-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>120.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>5-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>5-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>6-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>250.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Diğer</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>EV SAHIBI GOL YEMEZ 21912 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>DEPLASMAN GOL YEMEZ 21913 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Evet</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Hayır</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>İLK GOL 21856 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Olmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MS VE 1,5 ALT/ÜST 21857 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>X ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>X ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>MS VE 2,5 ALT/ÜST 21858 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>X ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>X ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>MS VE 4,5 ALT/ÜST 21860 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>X ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>X ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>MS VE 3,5 ALT/ÜST 21859 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>X ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2 ve Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>X ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2 ve Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. YARI EN ÇOK KORNER 33592 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. YARI KORNER ARALIĞI 33595 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>5-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>7+</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>GOL ATACAK TAKIMLAR 21915 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Yalnız 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Yalnız 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Her İkisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Hiçbiri</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>TOPLAM KORNER ARALIĞI 33590 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>0-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>9-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>12+</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1.YARI 4,5 KORNER ALT/ÜST 33593 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1.YARI 5,5 KORNER ALT/ÜST 33594 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>EV SAHIBI 1,5 A/Ü 21902 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>EN ÇOK GOL OLACAK YARI 21906 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Yarı</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Eşit</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2. Yarı</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>DEPLASMAN 2,5 A/Ü 21903 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Alt</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Üst</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>İLK KORNER 33591 MBS 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Olmaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1.38</t>
         </is>
       </c>
     </row>
